--- a/fishexport&import (2).xlsx
+++ b/fishexport&import (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nshim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nshim\Desktop\3179\Assginment_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD60090-74F0-4973-835E-E85CD115ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2254D5C5-E202-49E0-A10B-06C7C6923DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5EC87305-7E7A-4C3E-A498-55B466C5700E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" activeTab="1" xr2:uid="{5EC87305-7E7A-4C3E-A498-55B466C5700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F7B19434-D358-4953-8C62-534730D84BDC}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F7B19434-D358-4953-8C62-534730D84BDC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    book4
+Reply:
+    book1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
@@ -203,7 +223,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +266,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -389,83 +415,53 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{39412957-C180-443D-A6C7-897D231B010A}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0;\-0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0;\-0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,6 +474,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Neharika Shimpiger" id="{8C26F4E1-FBEB-4CF6-A4F7-977B8BA7BDDE}" userId="15cf7569273d855c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,6 +777,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-10-19T01:46:51.79" personId="{8C26F4E1-FBEB-4CF6-A4F7-977B8BA7BDDE}" id="{F7B19434-D358-4953-8C62-534730D84BDC}">
+    <text>book4</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2023-10-19T01:47:02.82" personId="{8C26F4E1-FBEB-4CF6-A4F7-977B8BA7BDDE}" id="{8DD6C482-73C7-416D-AC6D-4E65F3799FC3}" parentId="{F7B19434-D358-4953-8C62-534730D84BDC}">
+    <text>book1</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD68B28-7F90-441E-8BCD-C62C8977F151}">
   <dimension ref="A1:H29"/>
@@ -1240,8 +1253,8 @@
       <c r="B19" s="7">
         <v>28337.142</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1360,74 +1373,74 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D27 E1:F15 G1:H17">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B27">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThanOrEqual">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F15 G1:H17 A1:D27">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="between">
       <formula>-99.999999999999</formula>
       <formula>99.999999999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1436,40 +1449,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB6EFC8-845B-48AD-ACD7-077CD082548B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB6EFC8-845B-48AD-ACD7-077CD082548B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H16" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="5" max="5" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1477,7 +1490,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -1489,13 +1502,13 @@
       <c r="D2">
         <v>2986.6860000000001</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F2">
         <v>13608.311</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H2">
@@ -1503,7 +1516,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B3">
@@ -1515,13 +1528,13 @@
       <c r="D3">
         <v>360860.18800000002</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F3">
         <v>13073.945</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -1529,7 +1542,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -1541,13 +1554,13 @@
       <c r="D4">
         <v>1298.3800000000001</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H4">
@@ -1555,7 +1568,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -1567,13 +1580,13 @@
       <c r="D5">
         <v>1380.0119999999999</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F5">
         <v>519.59</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H5">
@@ -1581,7 +1594,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B6">
@@ -1593,13 +1606,13 @@
       <c r="D6">
         <v>225023.02100000001</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F6">
         <v>1138.875</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H6">
@@ -1607,7 +1620,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B7">
@@ -1619,13 +1632,13 @@
       <c r="D7">
         <v>18937.191999999999</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F7">
         <v>19026.967000000001</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H7">
@@ -1633,7 +1646,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8">
@@ -1645,13 +1658,13 @@
       <c r="D8">
         <v>3983.8530000000001</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F8">
         <v>3415.7330000000002</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H8">
@@ -1659,7 +1672,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B9">
@@ -1671,13 +1684,13 @@
       <c r="D9">
         <v>177432.777</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F9">
         <v>6592.1319999999996</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H9">
@@ -1685,7 +1698,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -1697,13 +1710,13 @@
       <c r="D10">
         <v>6220.2060000000001</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F10">
         <v>14945.53</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H10">
@@ -1711,7 +1724,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -1723,13 +1736,13 @@
       <c r="D11">
         <v>21885.404999999999</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F11">
         <v>59362.701999999997</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H11">
@@ -1737,7 +1750,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B12">
@@ -1749,13 +1762,13 @@
       <c r="D12">
         <v>39206.970999999998</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F12">
         <v>8017.5990000000002</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H12">
@@ -1763,7 +1776,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B13">
@@ -1775,13 +1788,13 @@
       <c r="D13">
         <v>56961.889000000003</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F13">
         <v>11009.069</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H13">
@@ -1789,7 +1802,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B14">
@@ -1801,13 +1814,13 @@
       <c r="D14">
         <v>38918.555999999997</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F14">
         <v>7376.2489999999998</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H14">
@@ -1815,7 +1828,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B15">
@@ -1827,13 +1840,13 @@
       <c r="D15">
         <v>101323.095</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F15">
         <v>51109.883000000002</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H15">
@@ -1841,7 +1854,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -1853,7 +1866,7 @@
       <c r="D16">
         <v>70545.232999999993</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H16">
@@ -1861,7 +1874,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B17">
@@ -1873,7 +1886,7 @@
       <c r="D17">
         <v>35328.843999999997</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H17">
@@ -1881,7 +1894,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B18">
@@ -1889,7 +1902,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B19">
@@ -1897,7 +1910,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B20">
@@ -1905,7 +1918,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B21">
@@ -1913,7 +1926,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B22">
@@ -1921,7 +1934,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B23">
@@ -1929,7 +1942,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B24">
@@ -1937,7 +1950,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B25">
@@ -1945,7 +1958,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B26">
@@ -1953,7 +1966,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B27">
@@ -1962,5 +1975,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>